--- a/docs/nopublish/schedule_updated.xlsx
+++ b/docs/nopublish/schedule_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\1_Intro-Data-Science\c1-intro-fall-2022\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85727998-EF71-4D78-AA93-F7636F1A6E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C28F3EB-E94F-4F31-96F2-EDDB1EA48167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="270">
   <si>
     <t>Week</t>
   </si>
@@ -837,6 +837,12 @@
   </si>
   <si>
     <t>./slides/w9_factors.pdf</t>
+  </si>
+  <si>
+    <t>hw2-key.Rmd</t>
+  </si>
+  <si>
+    <t>hw3-key.Rmd</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1421,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1467,9 +1473,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1828,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
@@ -1916,7 +1920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2601,7 +2605,7 @@
       <c r="G22" t="s">
         <v>259</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" t="s">
         <v>255</v>
       </c>
       <c r="N22" t="s">
@@ -2715,7 +2719,7 @@
       <c r="G26" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="2" t="s">
         <v>264</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2839,7 +2843,7 @@
       <c r="A30">
         <v>7</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" t="s">
         <v>259</v>
       </c>
       <c r="I30" t="s">
@@ -4066,8 +4070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4169,7 +4173,9 @@
       <c r="I3" t="s">
         <v>227</v>
       </c>
-      <c r="J3" s="27"/>
+      <c r="J3" s="37" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -4196,7 +4202,9 @@
       <c r="I4" t="s">
         <v>228</v>
       </c>
-      <c r="J4" s="27"/>
+      <c r="J4" s="37" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">

--- a/docs/nopublish/schedule_updated.xlsx
+++ b/docs/nopublish/schedule_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\1_Intro-Data-Science\c1-intro-fall-2022\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C28F3EB-E94F-4F31-96F2-EDDB1EA48167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDEBE0D-DA00-4289-B31E-BDA91D5CD07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="271">
   <si>
     <t>Week</t>
   </si>
@@ -843,6 +843,9 @@
   </si>
   <si>
     <t>hw3-key.Rmd</t>
+  </si>
+  <si>
+    <t>hw5.html</t>
   </si>
 </sst>
 </file>
@@ -1832,9 +1835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2571,7 +2574,7 @@
         <v>118</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="J21" t="s">
         <v>29</v>
@@ -2606,7 +2609,7 @@
         <v>259</v>
       </c>
       <c r="I22" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="N22" t="s">
         <v>125</v>
@@ -2655,7 +2658,9 @@
       <c r="O24" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="28"/>
+      <c r="P24" s="28" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="25" spans="1:20" s="1" customFormat="1">
       <c r="A25" s="1">
@@ -2781,7 +2786,9 @@
       <c r="R28" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="S28" s="28"/>
+      <c r="S28" s="28" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="11">
@@ -4070,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J3:J4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4173,7 +4180,7 @@
       <c r="I3" t="s">
         <v>227</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4202,7 +4209,7 @@
       <c r="I4" t="s">
         <v>228</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4249,7 +4256,9 @@
       <c r="E6" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="37" t="s">
+        <v>270</v>
+      </c>
       <c r="H6">
         <v>10</v>
       </c>

--- a/docs/nopublish/schedule_updated.xlsx
+++ b/docs/nopublish/schedule_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\1_Intro-Data-Science\c1-intro-fall-2022\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDEBE0D-DA00-4289-B31E-BDA91D5CD07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0138CB05-3C76-4844-8E7C-B5EF79205590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="273">
   <si>
     <t>Week</t>
   </si>
@@ -846,6 +846,12 @@
   </si>
   <si>
     <t>hw5.html</t>
+  </si>
+  <si>
+    <t>https://uoregon.zoom.us/rec/share/NC_wGI1uK50qx4h99kyrGdzw1FaXAwjatpj6T_sYv8H_inyAPOuBvsQvJwYyWh8v.RRQOUwFiWqf8app0</t>
+  </si>
+  <si>
+    <t>e4^QAsi?</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1482,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1835,30 +1841,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" customWidth="1"/>
     <col min="6" max="6" width="59" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
-    <col min="11" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.73046875" customWidth="1"/>
+    <col min="11" max="13" width="16.86328125" customWidth="1"/>
+    <col min="14" max="14" width="47.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.42578125" customWidth="1"/>
-    <col min="20" max="20" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.3984375" customWidth="1"/>
+    <col min="20" max="20" width="56.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="23" customFormat="1">
@@ -2025,7 +2031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" s="8" customFormat="1" ht="14.65" thickBot="1">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -2581,6 +2587,12 @@
       </c>
       <c r="K21" s="11" t="s">
         <v>119</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>124</v>
@@ -3158,9 +3170,10 @@
     <hyperlink ref="P25" r:id="rId11" xr:uid="{63E34C6F-6ADA-4E7B-9F9A-C4BA22381F5C}"/>
     <hyperlink ref="S30" r:id="rId12" xr:uid="{50853C36-94D7-493B-AC3E-9B4E913FC0D7}"/>
     <hyperlink ref="P26" r:id="rId13" xr:uid="{24954DE6-A619-4130-94FF-153270EF287A}"/>
+    <hyperlink ref="L21" r:id="rId14" xr:uid="{687C1A49-5786-4E3B-84FF-19F5297AC4AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -3172,11 +3185,11 @@
       <selection activeCell="C53" sqref="C53:C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4077,21 +4090,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="47.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.86328125" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4256,7 +4269,7 @@
       <c r="E6" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" t="s">
         <v>270</v>
       </c>
       <c r="H6">

--- a/docs/nopublish/schedule_updated.xlsx
+++ b/docs/nopublish/schedule_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\1_Intro-Data-Science\c1-intro-fall-2022\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0138CB05-3C76-4844-8E7C-B5EF79205590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C83901-15B6-472D-880A-788358BA2B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="275">
   <si>
     <t>Week</t>
   </si>
@@ -852,6 +852,12 @@
   </si>
   <si>
     <t>e4^QAsi?</t>
+  </si>
+  <si>
+    <t>hw4-key.Rmd</t>
+  </si>
+  <si>
+    <t>hw7.html</t>
   </si>
 </sst>
 </file>
@@ -1841,30 +1847,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomLeft" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="59" customWidth="1"/>
-    <col min="7" max="7" width="31.59765625" customWidth="1"/>
-    <col min="8" max="8" width="16.86328125" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="26.73046875" customWidth="1"/>
-    <col min="11" max="13" width="16.86328125" customWidth="1"/>
-    <col min="14" max="14" width="47.265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="36.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.3984375" customWidth="1"/>
-    <col min="20" max="20" width="56.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.42578125" customWidth="1"/>
+    <col min="20" max="20" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="23" customFormat="1">
@@ -2031,7 +2037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" ht="14.65" thickBot="1">
+    <row r="5" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -2791,7 +2797,9 @@
       <c r="O28" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="P28" s="28"/>
+      <c r="P28" s="28" t="s">
+        <v>274</v>
+      </c>
       <c r="Q28" s="3" t="s">
         <v>220</v>
       </c>
@@ -2904,7 +2912,9 @@
       <c r="R32" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="S32" s="28"/>
+      <c r="S32" s="28" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="33" spans="1:24" s="2" customFormat="1">
       <c r="A33" s="2">
@@ -3185,11 +3195,11 @@
       <selection activeCell="C53" sqref="C53:C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4090,21 +4100,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="47.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.86328125" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" customWidth="1"/>
-    <col min="9" max="9" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4251,7 +4261,9 @@
       <c r="I5" t="s">
         <v>229</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -4278,7 +4290,6 @@
       <c r="I6" t="s">
         <v>230</v>
       </c>
-      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -4321,6 +4332,9 @@
       <c r="E8" t="s">
         <v>222</v>
       </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
       <c r="H8">
         <v>10</v>
       </c>
@@ -4664,6 +4678,9 @@
       </c>
     </row>
     <row r="22" spans="1:8">
+      <c r="A22">
+        <v>5</v>
+      </c>
       <c r="B22" t="s">
         <v>199</v>
       </c>
@@ -4681,6 +4698,9 @@
       </c>
     </row>
     <row r="23" spans="1:8">
+      <c r="A23">
+        <v>9</v>
+      </c>
       <c r="B23" t="s">
         <v>199</v>
       </c>
@@ -4698,6 +4718,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
+      <c r="A24">
+        <v>9</v>
+      </c>
       <c r="B24" t="s">
         <v>199</v>
       </c>
@@ -4715,6 +4738,9 @@
       </c>
     </row>
     <row r="25" spans="1:8">
+      <c r="A25">
+        <v>10</v>
+      </c>
       <c r="B25" t="s">
         <v>199</v>
       </c>
@@ -4732,6 +4758,9 @@
       </c>
     </row>
     <row r="26" spans="1:8">
+      <c r="A26">
+        <v>11</v>
+      </c>
       <c r="B26" t="s">
         <v>199</v>
       </c>

--- a/docs/nopublish/schedule_updated.xlsx
+++ b/docs/nopublish/schedule_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\1_Intro-Data-Science\c1-intro-fall-2022\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C83901-15B6-472D-880A-788358BA2B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D11DCE4-7C99-4652-9A22-1EE9DB60EBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="277">
   <si>
     <t>Week</t>
   </si>
@@ -858,6 +858,12 @@
   </si>
   <si>
     <t>hw7.html</t>
+  </si>
+  <si>
+    <t>https://uoregon.zoom.us/rec/share/qAu81eMFp0xHVL7e1tB1RbP2w9DVk0Q_aqY0mtHCy7-lisNVsDv3NvD_RpbyyNCZ.kW4sXv_H09FfU5xe</t>
+  </si>
+  <si>
+    <t>7Rm!W?tm</t>
   </si>
 </sst>
 </file>
@@ -1847,9 +1853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1935,7 +1941,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" ht="15.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2056,7 +2062,7 @@
       </c>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="2" customFormat="1">
+    <row r="6" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2408,7 +2414,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1">
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="15.75">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -2714,7 +2720,12 @@
       <c r="K25" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="L25" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>276</v>
+      </c>
       <c r="N25" s="1" t="s">
         <v>98</v>
       </c>
@@ -3181,9 +3192,10 @@
     <hyperlink ref="S30" r:id="rId12" xr:uid="{50853C36-94D7-493B-AC3E-9B4E913FC0D7}"/>
     <hyperlink ref="P26" r:id="rId13" xr:uid="{24954DE6-A619-4130-94FF-153270EF287A}"/>
     <hyperlink ref="L21" r:id="rId14" xr:uid="{687C1A49-5786-4E3B-84FF-19F5297AC4AD}"/>
+    <hyperlink ref="L25" r:id="rId15" xr:uid="{286684A6-3F4B-4596-98E5-98F247E11D2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -4100,7 +4112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/docs/nopublish/schedule_updated.xlsx
+++ b/docs/nopublish/schedule_updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\1_Intro-Data-Science\c1-intro-fall-2022\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D11DCE4-7C99-4652-9A22-1EE9DB60EBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD4E1A4-2325-4155-9B87-780B331B3217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="280">
   <si>
     <t>Week</t>
   </si>
@@ -864,6 +864,15 @@
   </si>
   <si>
     <t>7Rm!W?tm</t>
+  </si>
+  <si>
+    <t>hw8.html</t>
+  </si>
+  <si>
+    <t>hw5-key.Rmd</t>
+  </si>
+  <si>
+    <t>hw7.Rmd</t>
   </si>
 </sst>
 </file>
@@ -1853,9 +1862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2863,7 +2872,9 @@
       <c r="O29" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="27"/>
+      <c r="P29" s="27" t="s">
+        <v>277</v>
+      </c>
       <c r="Q29" s="11" t="s">
         <v>98</v>
       </c>
@@ -2974,7 +2985,9 @@
       <c r="R33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="S33" s="27"/>
+      <c r="S33" s="27" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="34" spans="1:24" s="2" customFormat="1">
       <c r="A34" s="2">
@@ -4112,8 +4125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4302,6 +4315,9 @@
       <c r="I6" t="s">
         <v>230</v>
       </c>
+      <c r="J6" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -4353,6 +4369,9 @@
       <c r="I8" t="s">
         <v>215</v>
       </c>
+      <c r="J8" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
@@ -4370,7 +4389,9 @@
       <c r="E9" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" t="s">
+        <v>277</v>
+      </c>
       <c r="H9">
         <v>10</v>
       </c>

--- a/docs/nopublish/schedule_updated.xlsx
+++ b/docs/nopublish/schedule_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\1_Intro-Data-Science\c1-intro-fall-2022\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD4E1A4-2325-4155-9B87-780B331B3217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1741C5-45B3-4277-80BD-13196DD76EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="282">
   <si>
     <t>Week</t>
   </si>
@@ -873,6 +873,12 @@
   </si>
   <si>
     <t>hw7.Rmd</t>
+  </si>
+  <si>
+    <t>https://uoregon.zoom.us/rec/share/iXf1zR9HCHAdPyO4hrigrCWKEIPmZI8Grh6R-I7wrKSMO3tgE5_AYGxjL7PHCThH.1dKEa5VFxVZCAVYq</t>
+  </si>
+  <si>
+    <t>^4r!dSVA</t>
   </si>
 </sst>
 </file>
@@ -1862,9 +1868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2864,8 +2870,12 @@
       <c r="K29" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="11"/>
+      <c r="L29" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>281</v>
+      </c>
       <c r="N29" s="11" t="s">
         <v>223</v>
       </c>
@@ -3206,9 +3216,10 @@
     <hyperlink ref="P26" r:id="rId13" xr:uid="{24954DE6-A619-4130-94FF-153270EF287A}"/>
     <hyperlink ref="L21" r:id="rId14" xr:uid="{687C1A49-5786-4E3B-84FF-19F5297AC4AD}"/>
     <hyperlink ref="L25" r:id="rId15" xr:uid="{286684A6-3F4B-4596-98E5-98F247E11D2C}"/>
+    <hyperlink ref="L29" r:id="rId16" display="https://urldefense.com/v3/__https:/uoregon.zoom.us/rec/share/iXf1zR9HCHAdPyO4hrigrCWKEIPmZI8Grh6R-I7wrKSMO3tgE5_AYGxjL7PHCThH.1dKEa5VFxVZCAVYq__;!!C5qS4YX3!Buc5Wya0Axm9NkUgE6-dxfxv7_DgSnQZhCUze1vghOVCuTu1-Dd21nCl-p7VRQVaheR298ugG1V6bLxGgw$" xr:uid="{DC219A73-32AD-4AC5-8C85-488683CC9EA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -4125,7 +4136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>

--- a/docs/nopublish/schedule_updated.xlsx
+++ b/docs/nopublish/schedule_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\1_Intro-Data-Science\c1-intro-fall-2022\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1741C5-45B3-4277-80BD-13196DD76EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEAB6DC-637A-40F2-B7C3-4D372F385902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="283">
   <si>
     <t>Week</t>
   </si>
@@ -879,6 +879,9 @@
   </si>
   <si>
     <t>^4r!dSVA</t>
+  </si>
+  <si>
+    <t>hw9.html</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1460,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1510,6 +1513,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1868,9 +1872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomLeft" activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2988,7 +2992,9 @@
       <c r="O33" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P33" s="29"/>
+      <c r="P33" s="29" t="s">
+        <v>282</v>
+      </c>
       <c r="Q33" s="1" t="s">
         <v>223</v>
       </c>
@@ -3102,7 +3108,9 @@
       <c r="R37" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="S37" s="30"/>
+      <c r="S37" s="30" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="38" spans="1:24" s="8" customFormat="1">
       <c r="A38" s="8">
@@ -4136,7 +4144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -4427,7 +4435,9 @@
       <c r="E10" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="38" t="s">
+        <v>282</v>
+      </c>
       <c r="H10">
         <v>10</v>
       </c>

--- a/docs/nopublish/schedule_updated.xlsx
+++ b/docs/nopublish/schedule_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\1_Intro-Data-Science\c1-intro-fall-2022\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEAB6DC-637A-40F2-B7C3-4D372F385902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BF60EB-0F62-452D-BF1A-6ACBB4D41715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="285">
   <si>
     <t>Week</t>
   </si>
@@ -882,6 +882,12 @@
   </si>
   <si>
     <t>hw9.html</t>
+  </si>
+  <si>
+    <t>https://uoregon.zoom.us/rec/share/0eBmicaQhLlLajMMZQGxydC_FkX5pXhn1fK3EU4czfxDC_VBCxGLQJPY3R3c1aK2.KgkX1k9i2QJLnmVG</t>
+  </si>
+  <si>
+    <t>RF#38GRy</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1079,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1268,6 +1274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,7 +1525,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1872,9 +1884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2986,6 +2998,12 @@
       <c r="K33" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="L33" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="N33" s="2" t="s">
         <v>224</v>
       </c>
@@ -3225,9 +3243,10 @@
     <hyperlink ref="L21" r:id="rId14" xr:uid="{687C1A49-5786-4E3B-84FF-19F5297AC4AD}"/>
     <hyperlink ref="L25" r:id="rId15" xr:uid="{286684A6-3F4B-4596-98E5-98F247E11D2C}"/>
     <hyperlink ref="L29" r:id="rId16" display="https://urldefense.com/v3/__https:/uoregon.zoom.us/rec/share/iXf1zR9HCHAdPyO4hrigrCWKEIPmZI8Grh6R-I7wrKSMO3tgE5_AYGxjL7PHCThH.1dKEa5VFxVZCAVYq__;!!C5qS4YX3!Buc5Wya0Axm9NkUgE6-dxfxv7_DgSnQZhCUze1vghOVCuTu1-Dd21nCl-p7VRQVaheR298ugG1V6bLxGgw$" xr:uid="{DC219A73-32AD-4AC5-8C85-488683CC9EA8}"/>
+    <hyperlink ref="L33" r:id="rId17" xr:uid="{23B1AA2A-F319-42BD-8BE3-E890D4DF6254}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -4144,7 +4163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C12" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -4435,7 +4454,7 @@
       <c r="E10" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" t="s">
         <v>282</v>
       </c>
       <c r="H10">

--- a/docs/nopublish/schedule_updated.xlsx
+++ b/docs/nopublish/schedule_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\1_Intro-Data-Science\c1-intro-fall-2022\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BF60EB-0F62-452D-BF1A-6ACBB4D41715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA06929A-71CA-4667-B21E-7913C82EFCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="286">
   <si>
     <t>Week</t>
   </si>
@@ -888,6 +888,9 @@
   </si>
   <si>
     <t>RF#38GRy</t>
+  </si>
+  <si>
+    <t>hw8-key.Rmd</t>
   </si>
 </sst>
 </file>
@@ -1884,9 +1887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4163,8 +4166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4436,7 +4439,9 @@
       <c r="I9" t="s">
         <v>232</v>
       </c>
-      <c r="J9" s="27"/>
+      <c r="J9" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">

--- a/docs/nopublish/schedule_updated.xlsx
+++ b/docs/nopublish/schedule_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\1_Intro-Data-Science\c1-intro-fall-2022\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA06929A-71CA-4667-B21E-7913C82EFCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87532D43-2F6F-462F-A3A9-4251131D0A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="287">
   <si>
     <t>Week</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t>hw8-key.Rmd</t>
+  </si>
+  <si>
+    <t>hw10.html</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1478,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1529,6 +1532,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1887,30 +1891,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" customWidth="1"/>
     <col min="6" max="6" width="59" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
-    <col min="11" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.73046875" customWidth="1"/>
+    <col min="11" max="13" width="16.86328125" customWidth="1"/>
+    <col min="14" max="14" width="47.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.42578125" customWidth="1"/>
-    <col min="20" max="20" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.3984375" customWidth="1"/>
+    <col min="20" max="20" width="56.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="23" customFormat="1">
@@ -1975,7 +1979,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75">
+    <row r="2" spans="1:20" ht="15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" s="8" customFormat="1" ht="14.65" thickBot="1">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -2096,7 +2100,7 @@
       </c>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" ht="15.75">
+    <row r="6" spans="1:20" s="2" customFormat="1" ht="15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2448,7 +2452,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="15.75">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="15">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" ht="15.75">
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="15">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -3122,7 +3126,9 @@
       <c r="O37" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="P37" s="30"/>
+      <c r="P37" s="30" t="s">
+        <v>286</v>
+      </c>
       <c r="Q37" s="11" t="s">
         <v>224</v>
       </c>
@@ -3261,11 +3267,11 @@
       <selection activeCell="C53" sqref="C53:C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4166,21 +4172,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="47.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.86328125" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4486,7 +4492,9 @@
       <c r="E11" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="39" t="s">
+        <v>286</v>
+      </c>
       <c r="H11">
         <v>10</v>
       </c>

--- a/docs/nopublish/schedule_updated.xlsx
+++ b/docs/nopublish/schedule_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\1_Intro-Data-Science\c1-intro-fall-2022\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87532D43-2F6F-462F-A3A9-4251131D0A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA74059-374C-4970-A538-2200BE105437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="289">
   <si>
     <t>Week</t>
   </si>
@@ -894,6 +894,12 @@
   </si>
   <si>
     <t>hw10.html</t>
+  </si>
+  <si>
+    <t>https://uoregon.zoom.us/rec/share/x5ehHYRK9HMp-GutZmfFmBQIvvOEmHNpNDIlb7FvevLBLLjE79mjcB0OMZe3VjOy.9NM3jXNeAR9u0Kxq</t>
+  </si>
+  <si>
+    <t>9.^4GaF&amp;</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1538,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="42" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1891,9 +1897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -3119,7 +3125,12 @@
       <c r="K37" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="M37"/>
+      <c r="L37" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>288</v>
+      </c>
       <c r="N37" s="11" t="s">
         <v>165</v>
       </c>
@@ -3253,9 +3264,10 @@
     <hyperlink ref="L25" r:id="rId15" xr:uid="{286684A6-3F4B-4596-98E5-98F247E11D2C}"/>
     <hyperlink ref="L29" r:id="rId16" display="https://urldefense.com/v3/__https:/uoregon.zoom.us/rec/share/iXf1zR9HCHAdPyO4hrigrCWKEIPmZI8Grh6R-I7wrKSMO3tgE5_AYGxjL7PHCThH.1dKEa5VFxVZCAVYq__;!!C5qS4YX3!Buc5Wya0Axm9NkUgE6-dxfxv7_DgSnQZhCUze1vghOVCuTu1-Dd21nCl-p7VRQVaheR298ugG1V6bLxGgw$" xr:uid="{DC219A73-32AD-4AC5-8C85-488683CC9EA8}"/>
     <hyperlink ref="L33" r:id="rId17" xr:uid="{23B1AA2A-F319-42BD-8BE3-E890D4DF6254}"/>
+    <hyperlink ref="L37" r:id="rId18" xr:uid="{724BE7D4-5A79-49F1-BE3D-700AE94BC152}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -4492,7 +4504,7 @@
       <c r="E11" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" t="s">
         <v>286</v>
       </c>
       <c r="H11">

--- a/docs/nopublish/schedule_updated.xlsx
+++ b/docs/nopublish/schedule_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\1_Intro-Data-Science\c1-intro-fall-2022\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA74059-374C-4970-A538-2200BE105437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133686E0-A284-43BA-92FE-3DA1DA26CD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="291">
   <si>
     <t>Week</t>
   </si>
@@ -900,6 +900,12 @@
   </si>
   <si>
     <t>9.^4GaF&amp;</t>
+  </si>
+  <si>
+    <t>hw9-key.Rmd</t>
+  </si>
+  <si>
+    <t>hw10.Rmd</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1490,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1538,7 +1544,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="42" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1897,30 +1902,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="59" customWidth="1"/>
-    <col min="7" max="7" width="31.59765625" customWidth="1"/>
-    <col min="8" max="8" width="16.86328125" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="26.73046875" customWidth="1"/>
-    <col min="11" max="13" width="16.86328125" customWidth="1"/>
-    <col min="14" max="14" width="47.265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="36.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.3984375" customWidth="1"/>
-    <col min="20" max="20" width="56.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.42578125" customWidth="1"/>
+    <col min="20" max="20" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="23" customFormat="1">
@@ -1985,7 +1990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15">
+    <row r="2" spans="1:20" ht="15.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2087,7 +2092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" ht="14.65" thickBot="1">
+    <row r="5" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -2106,7 +2111,7 @@
       </c>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" ht="15">
+    <row r="6" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2458,7 +2463,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="15">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" ht="15">
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="15.75">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -3128,7 +3133,7 @@
       <c r="L37" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="M37" s="39" t="s">
+      <c r="M37" t="s">
         <v>288</v>
       </c>
       <c r="N37" s="11" t="s">
@@ -3188,7 +3193,9 @@
       <c r="R39" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="S39" s="27"/>
+      <c r="S39" s="30" t="s">
+        <v>286</v>
+      </c>
       <c r="T39" s="2" t="s">
         <v>174</v>
       </c>
@@ -3279,11 +3286,11 @@
       <selection activeCell="C53" sqref="C53:C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4184,21 +4191,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="47.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.86328125" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" customWidth="1"/>
-    <col min="9" max="9" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4486,7 +4493,9 @@
       <c r="I10" t="s">
         <v>233</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
@@ -4513,7 +4522,9 @@
       <c r="I11" t="s">
         <v>234</v>
       </c>
-      <c r="J11" s="27"/>
+      <c r="J11" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
